--- a/local/scenarios/cough/processes/ExampleProcess.xlsx
+++ b/local/scenarios/cough/processes/ExampleProcess.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Erst ein paar Tage</t>
   </si>
   <si>
-    <t xml:space="preserve">GO(PreviousMedBrand)</t>
+    <t xml:space="preserve">GO(PreviousMedBrand);</t>
   </si>
   <si>
     <t xml:space="preserve">less_than_1</t>
@@ -82,13 +82,13 @@
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Brands</t>
+    <t xml:space="preserve">SELECT * FROM Brands;</t>
   </si>
   <si>
     <t xml:space="preserve">What's your previous med brand?</t>
   </si>
   <si>
-    <t xml:space="preserve">GO(PreviousMedProduct)</t>
+    <t xml:space="preserve">GO(PreviousMedProduct);</t>
   </si>
   <si>
     <t xml:space="preserve">[prev_med_brand]</t>
@@ -97,31 +97,13 @@
     <t xml:space="preserve">PreviousMedProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE brand_id == [prev_med_brand]</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE brand_id == [prev_med_brand];</t>
   </si>
   <si>
     <t xml:space="preserve">Please choose your product from the med brand</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">GO(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SeeProduct)</t>
-    </r>
+    <t xml:space="preserve">GO(SeeProduct);</t>
   </si>
   <si>
     <t xml:space="preserve">[med]</t>
@@ -133,31 +115,13 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE id == [med]</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE id == [med];</t>
   </si>
   <si>
     <t xml:space="preserve">Take a look at this wonderful product</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">GO(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">FreeText)</t>
-    </r>
+    <t xml:space="preserve">GO(FreeText);</t>
   </si>
   <si>
     <t xml:space="preserve">FreeText</t>
@@ -169,7 +133,7 @@
     <t xml:space="preserve">Gimme answers</t>
   </si>
   <si>
-    <t xml:space="preserve">FINISH()</t>
+    <t xml:space="preserve">FINISH();</t>
   </si>
   <si>
     <t xml:space="preserve">[free_text]</t>
@@ -182,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -212,12 +176,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -372,8 +330,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -491,7 +449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -511,7 +469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>

--- a/local/scenarios/cough/processes/ExampleProcess.xlsx
+++ b/local/scenarios/cough/processes/ExampleProcess.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup</t>
   </si>
   <si>
     <t xml:space="preserve">time</t>
@@ -328,10 +334,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -364,143 +370,149 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
